--- a/Gestão do Projeto/Indicadores/IndicadoresPlanoTrabalhoJUNHO23.xlsx
+++ b/Gestão do Projeto/Indicadores/IndicadoresPlanoTrabalhoJUNHO23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E719C4F2-1853-4044-8753-45336B30CF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78131085-8081-C542-9C60-6DC35CF5E69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="3120" windowWidth="26840" windowHeight="15940" xr2:uid="{BBEB64F3-A0FD-8443-B46C-44F3CC52CE04}"/>
+    <workbookView xWindow="1960" yWindow="760" windowWidth="26840" windowHeight="17880" xr2:uid="{BBEB64F3-A0FD-8443-B46C-44F3CC52CE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,13 +92,13 @@
     <t>MAIO 23</t>
   </si>
   <si>
-    <t>JUNHO 23 (*)</t>
-  </si>
-  <si>
-    <t>(*) até 20 de junho</t>
-  </si>
-  <si>
     <t>Obs: Mapeamento Imunobiológicos e Patógenos precisa inlcusão de termos no IPS, já solicitados ao GHDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNHO 23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -343,42 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,6 +355,42 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C209F-BEDB-6A41-9AE1-7109A510D013}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,20 +801,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -822,21 +822,21 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>16</v>
+      <c r="H2" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
@@ -846,13 +846,13 @@
       <c r="E3" s="7">
         <v>12</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="9"/>
       <c r="D4" s="7" t="s">
         <v>12</v>
@@ -860,9 +860,9 @@
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -880,15 +880,15 @@
       <c r="E5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="11">
         <f>'[1]Abril-23'!$T$2</f>
         <v>1</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="11">
         <f>'[2]Abril-23'!$T$2</f>
         <v>1</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="11">
         <f>'[2]Abril-23'!$T$2</f>
         <v>1</v>
       </c>
@@ -909,13 +909,13 @@
       <c r="E6" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="14">
         <v>0</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="14">
         <v>0.15</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="14">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -935,15 +935,15 @@
       <c r="E7" s="1">
         <v>100</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="13">
         <f>[3]Tarefas!$U$2</f>
         <v>0.82954545454545459</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="14">
         <f>[4]Tarefas!$U$2</f>
         <v>0.82954545454545459</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="14">
         <v>0.94</v>
       </c>
     </row>
@@ -963,14 +963,14 @@
       <c r="E8" s="1">
         <v>100</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="12">
         <v>0.22800000000000001</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="12">
         <v>0.46899999999999997</v>
       </c>
-      <c r="H8" s="24">
-        <v>0.58760000000000001</v>
+      <c r="H8" s="12">
+        <v>0.90559999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -989,14 +989,14 @@
       <c r="E9" s="1">
         <v>100</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="14">
         <v>0</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="14">
         <v>0.3</v>
       </c>
-      <c r="H9" s="26">
-        <v>0.5</v>
+      <c r="H9" s="14">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1015,13 +1015,13 @@
       <c r="E10" s="1">
         <v>100</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="14">
         <v>0.02</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="14">
         <v>0.46</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="14">
         <v>0.53</v>
       </c>
     </row>
@@ -1041,24 +1041,24 @@
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="14">
         <v>0.1</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="14">
         <v>1</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
